--- a/заказы/статистика филиалы/2024/02,24/22,02,24 ПОКОМ КИ филиалы/дв 23,02,24 бррсч ки.xlsx
+++ b/заказы/статистика филиалы/2024/02,24/22,02,24 ПОКОМ КИ филиалы/дв 23,02,24 бррсч ки.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\22,02,24 ПОКОМ КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2024\02,24\22,02,24 ПОКОМ КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0F56BC-C01F-412F-8A78-B03955592F47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF24AA6E-BAFE-455F-81E5-EDEF08AF2870}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AC$98</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="155">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -483,9 +483,6 @@
     <t>477 Колбаса Любительская ГОСТ ТМ Вязанка в оболочке полиамид.  ПОКОМ</t>
   </si>
   <si>
-    <t>согласовал Химич / необходимо увеличить продажи</t>
-  </si>
-  <si>
     <t>задвоенное СКЮ</t>
   </si>
   <si>
@@ -493,6 +490,12 @@
   </si>
   <si>
     <t>26,02,</t>
+  </si>
+  <si>
+    <t>блокировка Корницов / нужно увеличить продажи</t>
+  </si>
+  <si>
+    <t>блокировка Корницов / согласовал Химич / необходимо увеличить продажи</t>
   </si>
 </sst>
 </file>
@@ -937,8 +940,8 @@
   <dimension ref="A1:AX499"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S14" sqref="S14"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,7 +959,7 @@
     <col min="19" max="19" width="22" customWidth="1"/>
     <col min="20" max="21" width="5.28515625" customWidth="1"/>
     <col min="22" max="27" width="7.28515625" customWidth="1"/>
-    <col min="28" max="28" width="21" customWidth="1"/>
+    <col min="28" max="28" width="35.85546875" customWidth="1"/>
     <col min="29" max="50" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1114,7 +1117,7 @@
         <v>14</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R3" s="10" t="s">
         <v>15</v>
@@ -1198,7 +1201,7 @@
         <v>24</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -1328,7 +1331,7 @@
       <c r="AB5" s="1"/>
       <c r="AC5" s="4">
         <f>SUM(AC6:AC499)</f>
-        <v>7125.019299999999</v>
+        <v>7115.2833000000001</v>
       </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
@@ -3369,7 +3372,7 @@
         <v>103.824</v>
       </c>
       <c r="G26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1">
         <v>60</v>
@@ -3425,11 +3428,11 @@
         <v>14.308199999999999</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="AC26" s="1">
         <f t="shared" si="3"/>
-        <v>9.7360000000000042</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
@@ -4538,7 +4541,7 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AC37" s="1">
         <f t="shared" si="3"/>
@@ -10508,7 +10511,7 @@
         <v>78.075999999999993</v>
       </c>
       <c r="G98" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" s="1">
         <v>50</v>
@@ -10559,7 +10562,7 @@
         <v>0</v>
       </c>
       <c r="AB98" s="12" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AC98" s="1">
         <f t="shared" si="18"/>
